--- a/PCB&Schematic/SDHCalFEB/Capture/Bom.xlsx
+++ b/PCB&Schematic/SDHCalFEB/Capture/Bom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="SDHCALFEB" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
   <si>
     <t>SDHCal FEB  Revised: Monday, January 22, 2018</t>
   </si>
@@ -27,7 +27,7 @@
     <t>Design Info          Revision: v1.0</t>
   </si>
   <si>
-    <t>Bill Of Materials        January 24,2018      8:58:16</t>
+    <t>Bill Of Materials        January 26,2018      14:27:31</t>
   </si>
   <si>
     <t>Page1</t>
@@ -105,7 +105,7 @@
     <t>SC0805</t>
   </si>
   <si>
-    <t>C1463,C1471</t>
+    <t>C1463,C1466,C1471,C1474</t>
   </si>
   <si>
     <t>47uF</t>
@@ -114,10 +114,7 @@
     <t>SC1206</t>
   </si>
   <si>
-    <t>C1466,C1474</t>
-  </si>
-  <si>
-    <t>D1,D2,D3,D4,D6</t>
+    <t>D1,D2,D3,D4,D6,D7,D8</t>
   </si>
   <si>
     <t>Green</t>
@@ -132,24 +129,12 @@
     <t>GemGndPad</t>
   </si>
   <si>
-    <t>J1,J2,J3,J4,J5,J6,J7,J8,J11,J13,J14,J15,J16,J17,J18,J19,J20,J21,J22,J23,J24,J25,J26,J27,J28,J29,J30,J31,J32</t>
+    <t>J1,J2,J3,J4,J5,J6,J7,J8,J9,J10,J11,J12,J13,J14,J15,J16,J17,J18,J19,J20,J21,J22,J23,J24,J25,J26,J27,J28,J29,J30,J31,J32,J36,J37,J38,J39,J40,J41,J42,J43,J44,J45,J46,J47,J48,J49,J50,J51,J52,J53,J54,J56,J57,J58,J59,J60,J61,J62,J63,J64,J65,J66,J67,J68</t>
   </si>
   <si>
     <t>SMA_SMD</t>
   </si>
   <si>
-    <t>J9,J10,J36,J37,J38,J39</t>
-  </si>
-  <si>
-    <t>SMA SMD</t>
-  </si>
-  <si>
-    <t>J12</t>
-  </si>
-  <si>
-    <t>SMASMD</t>
-  </si>
-  <si>
     <t>J33,J34,J35</t>
   </si>
   <si>
@@ -159,12 +144,6 @@
     <t>ERNI154744FemaleConnector</t>
   </si>
   <si>
-    <t>J40,J41,J42,J43,J44,J45,J46,J47,J48,J49,J50,J51,J52,J53,J54,J56,J57,J58,J59,J60,J61,J62,J63,J64,J65,J66,J67,J68</t>
-  </si>
-  <si>
-    <t>SMA</t>
-  </si>
-  <si>
     <t>J55</t>
   </si>
   <si>
@@ -219,7 +198,7 @@
     <t>R71,R72,R154,R155,R237,R238,R320,R321,R404,R405,R487,R488,R570,R571,R653,R654,R737,R738,R820,R821,R903,R904,R986,R987,R1070,R1071,R1153,R1154,R1236,R1237,R1319,R1320,R1359,R1361</t>
   </si>
   <si>
-    <t>R77,R78,R79,R80,R81,R82,R83,R84,R410,R411,R412,R413,R414,R415,R416,R417,R743,R744,R745,R746,R747,R748,R749,R750,R1076,R1077,R1078,R1079,R1080,R1081,R1082,R1083,R1346,R1347,R1352,R1353,R2589,R2590,R2591,R2592,R2593,R2594,R2595,R2596</t>
+    <t>R77,R78,R79,R80,R81,R82,R83,R84,R410,R411,R412,R413,R414,R415,R416,R417,R743,R744,R745,R746,R747,R748,R749,R750,R1076,R1077,R1078,R1079,R1080,R1081,R1082,R1083,R1346,R1347,R1352,R1353,R2589,R2590,R2591,R2592,R2593,R2594,R2595,R2596,R2597,R2598</t>
   </si>
   <si>
     <t>10k</t>
@@ -231,7 +210,7 @@
     <t>SR0402</t>
   </si>
   <si>
-    <t>R1341,R1342,R1343,R1344,R1355,R1356,R1363,R1364</t>
+    <t>R1341,R1342,R1343,R1344,R1355,R1356,R1363,R1364,R2512</t>
   </si>
   <si>
     <t>1k</t>
@@ -246,12 +225,6 @@
     <t>SR0603_1M</t>
   </si>
   <si>
-    <t>R2512</t>
-  </si>
-  <si>
-    <t>1.5k</t>
-  </si>
-  <si>
     <t>TP1,TP2,TP6,TP7,TP12,TP13,TP21,TP22,TP26,TP27,TP32,TP33,TP37,TP38,TP43,TP44,TP48,TP49,TP54,TP55,TP59,TP60,TP65,TP66,TP70,TP71,TP76,TP77,TP81,TP82,TP87,TP88,TP92,TP93,TP98,TP99,TP103,TP104,TP109,TP110,TP114,TP115,TP120,TP121,TP122,TP123,TP131,TP132,TP133,TP134,TP142,TP143,TP147,TP148,TP153,TP154,TP158,TP159,TP164,TP165,TP166,TP167,TP175,TP176</t>
   </si>
   <si>
@@ -400,13 +373,25 @@
   </si>
   <si>
     <t>ADA4891-4-TSSOP</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用MA3J147代</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>10pF 5%代</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +554,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
@@ -757,7 +751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -872,6 +866,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1001,11 +1010,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1332,30 +1362,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1363,830 +1394,807 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="F12" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>900</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="F16" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>272</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>100</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>6</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>7</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>8</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>9</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>17</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>18</v>
+      </c>
+      <c r="B32" s="2">
+        <v>900</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2">
+        <v>102</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>20</v>
+      </c>
+      <c r="B34" s="2">
+        <v>102</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>21</v>
+      </c>
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="3">
+        <v>50</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>22</v>
+      </c>
+      <c r="B36" s="2">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="3">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>25</v>
+      </c>
+      <c r="B39" s="2">
+        <v>900</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>26</v>
+      </c>
+      <c r="B40" s="4">
+        <v>64</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>27</v>
+      </c>
+      <c r="B41" s="4">
+        <v>48</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>28</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B42" s="2">
+        <v>902</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>29</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B43" s="4">
+        <v>16</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24">
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>31</v>
+      </c>
+      <c r="B45" s="2">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>32</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>33</v>
       </c>
-      <c r="E25" t="s">
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>36</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>13</v>
-      </c>
-      <c r="B27">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B50" s="2">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>37</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>38</v>
       </c>
-      <c r="E27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>14</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B52" s="2">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>40</v>
       </c>
-      <c r="E28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>15</v>
-      </c>
-      <c r="B29">
+      <c r="B54" s="2">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>41</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>42</v>
       </c>
-      <c r="E29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>16</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>17</v>
-      </c>
-      <c r="B31">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>18</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>19</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>20</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>21</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>22</v>
-      </c>
-      <c r="B36">
-        <v>900</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
-      </c>
-      <c r="E36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>23</v>
-      </c>
-      <c r="B37">
-        <v>102</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>24</v>
-      </c>
-      <c r="B38">
-        <v>102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>25</v>
-      </c>
-      <c r="B39">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39">
-        <v>50</v>
-      </c>
-      <c r="E39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>26</v>
-      </c>
-      <c r="B40">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>27</v>
-      </c>
-      <c r="B41">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41">
-        <v>100</v>
-      </c>
-      <c r="E41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>28</v>
-      </c>
-      <c r="B42">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>29</v>
-      </c>
-      <c r="B43">
-        <v>900</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>30</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>31</v>
-      </c>
-      <c r="B45" s="1">
-        <v>64</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>32</v>
-      </c>
-      <c r="B46" s="1">
-        <v>48</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>33</v>
-      </c>
-      <c r="B47">
-        <v>902</v>
-      </c>
-      <c r="C47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>34</v>
-      </c>
-      <c r="B48">
-        <v>16</v>
-      </c>
-      <c r="C48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>35</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>36</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>37</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>38</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>39</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>40</v>
-      </c>
-      <c r="B54">
+      <c r="B56" s="2">
         <v>4</v>
       </c>
-      <c r="C54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>41</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>42</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>43</v>
-      </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="C56" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>44</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D56" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E56" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>45</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>46</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>47</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" t="s">
-        <v>126</v>
-      </c>
+      <c r="F56" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>